--- a/ESPN sports website/IPL/Punjab Kings/M Shahrukh Khan.xlsx
+++ b/ESPN sports website/IPL/Punjab Kings/M Shahrukh Khan.xlsx
@@ -445,31 +445,31 @@
         <v>M Shahrukh Khan</v>
       </c>
       <c r="C2" t="str">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D2" t="str">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>2</v>
       </c>
       <c r="G2" t="str">
-        <v>92.85</v>
+        <v>187.50</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>April 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
+        <v>Titans won by 6 wickets</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         <v>M Shahrukh Khan</v>
       </c>
       <c r="C4" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="str">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>54.54</v>
+        <v>60.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>April 03, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +585,31 @@
         <v>M Shahrukh Khan</v>
       </c>
       <c r="C6" t="str">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" t="str">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>187.50</v>
+        <v>92.85</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 08, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 6 wickets</v>
+        <v>Sunrisers won by 7 wickets (with 7 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -655,10 +655,10 @@
         <v>M Shahrukh Khan</v>
       </c>
       <c r="C8" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="str">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>60.00</v>
+        <v>54.54</v>
       </c>
       <c r="H8" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I8" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J8" t="str">
-        <v>April 20, 2022</v>
+        <v>April 03, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="9">
